--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Fzd3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H2">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I2">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J2">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.411144567810399</v>
+        <v>0.415887</v>
       </c>
       <c r="N2">
-        <v>0.411144567810399</v>
+        <v>0.831774</v>
       </c>
       <c r="O2">
-        <v>0.1339726691676659</v>
+        <v>0.1274765705819998</v>
       </c>
       <c r="P2">
-        <v>0.1339726691676659</v>
+        <v>0.1197424607254622</v>
       </c>
       <c r="Q2">
-        <v>0.895585152778966</v>
+        <v>1.0037817440475</v>
       </c>
       <c r="R2">
-        <v>0.895585152778966</v>
+        <v>4.01512697619</v>
       </c>
       <c r="S2">
-        <v>0.01382831627361948</v>
+        <v>0.01282626645482982</v>
       </c>
       <c r="T2">
-        <v>0.01382831627361948</v>
+        <v>0.008389898967558767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H3">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I3">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J3">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.25417685595988</v>
+        <v>0.2747246666666667</v>
       </c>
       <c r="N3">
-        <v>0.25417685595988</v>
+        <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08282427763777249</v>
+        <v>0.08420786983230948</v>
       </c>
       <c r="P3">
-        <v>0.08282427763777249</v>
+        <v>0.1186483622064973</v>
       </c>
       <c r="Q3">
-        <v>0.5536666082930763</v>
+        <v>0.6630733950316667</v>
       </c>
       <c r="R3">
-        <v>0.5536666082930763</v>
+        <v>3.97844037019</v>
       </c>
       <c r="S3">
-        <v>0.008548910112971082</v>
+        <v>0.008472714406511796</v>
       </c>
       <c r="T3">
-        <v>0.008548910112971082</v>
+        <v>0.008313239644048478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H4">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I4">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J4">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.40354755051174</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>2.40354755051174</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7832030531945616</v>
+        <v>0.006547107881326709</v>
       </c>
       <c r="P4">
-        <v>0.7832030531945616</v>
+        <v>0.009224834078519996</v>
       </c>
       <c r="Q4">
-        <v>5.235582976811305</v>
+        <v>0.05155353126916667</v>
       </c>
       <c r="R4">
-        <v>5.235582976811305</v>
+        <v>0.309321187615</v>
       </c>
       <c r="S4">
-        <v>0.0808402160927665</v>
+        <v>0.000658748111994396</v>
       </c>
       <c r="T4">
-        <v>0.0808402160927665</v>
+        <v>0.0006463490514757594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H5">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I5">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J5">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.411144567810399</v>
+        <v>0.125357</v>
       </c>
       <c r="N5">
-        <v>0.411144567810399</v>
+        <v>0.376071</v>
       </c>
       <c r="O5">
-        <v>0.1339726691676659</v>
+        <v>0.03842409226171471</v>
       </c>
       <c r="P5">
-        <v>0.1339726691676659</v>
+        <v>0.05413930580600655</v>
       </c>
       <c r="Q5">
-        <v>7.08436951798791</v>
+        <v>0.3025607150225</v>
       </c>
       <c r="R5">
-        <v>7.08436951798791</v>
+        <v>1.815364290135</v>
       </c>
       <c r="S5">
-        <v>0.1093864742955427</v>
+        <v>0.003866103734856107</v>
       </c>
       <c r="T5">
-        <v>0.1093864742955427</v>
+        <v>0.003793335322610221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H6">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I6">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J6">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.25417685595988</v>
+        <v>2.42513</v>
       </c>
       <c r="N6">
-        <v>0.25417685595988</v>
+        <v>4.85026</v>
       </c>
       <c r="O6">
-        <v>0.08282427763777249</v>
+        <v>0.7433443594426494</v>
       </c>
       <c r="P6">
-        <v>0.08282427763777249</v>
+        <v>0.6982450371835141</v>
       </c>
       <c r="Q6">
-        <v>4.379682747919874</v>
+        <v>5.853275579525</v>
       </c>
       <c r="R6">
-        <v>4.379682747919874</v>
+        <v>23.4131023181</v>
       </c>
       <c r="S6">
-        <v>0.06762465638071856</v>
+        <v>0.07479282489618923</v>
       </c>
       <c r="T6">
-        <v>0.06762465638071856</v>
+        <v>0.04892337505908046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +841,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H7">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I7">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J7">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.40354755051174</v>
+        <v>0.415887</v>
       </c>
       <c r="N7">
-        <v>2.40354755051174</v>
+        <v>0.831774</v>
       </c>
       <c r="O7">
-        <v>0.7832030531945616</v>
+        <v>0.1274765705819998</v>
       </c>
       <c r="P7">
-        <v>0.7832030531945616</v>
+        <v>0.1197424607254622</v>
       </c>
       <c r="Q7">
-        <v>41.41516229330855</v>
+        <v>8.220853439561001</v>
       </c>
       <c r="R7">
-        <v>41.41516229330855</v>
+        <v>49.325120637366</v>
       </c>
       <c r="S7">
-        <v>0.6394723728258319</v>
+        <v>0.1050456011251425</v>
       </c>
       <c r="T7">
-        <v>0.6394723728258319</v>
+        <v>0.1030684163076803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H8">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J8">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.411144567810399</v>
+        <v>0.2747246666666667</v>
       </c>
       <c r="N8">
-        <v>0.411144567810399</v>
+        <v>0.824174</v>
       </c>
       <c r="O8">
-        <v>0.1339726691676659</v>
+        <v>0.08420786983230948</v>
       </c>
       <c r="P8">
-        <v>0.1339726691676659</v>
+        <v>0.1186483622064973</v>
       </c>
       <c r="Q8">
-        <v>0.4445110142667371</v>
+        <v>5.430492467662889</v>
       </c>
       <c r="R8">
-        <v>0.4445110142667371</v>
+        <v>48.87443220896599</v>
       </c>
       <c r="S8">
-        <v>0.006863489053290378</v>
+        <v>0.06939052616192477</v>
       </c>
       <c r="T8">
-        <v>0.006863489053290378</v>
+        <v>0.1021266701555544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,184 +965,184 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H9">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J9">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.25417685595988</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N9">
-        <v>0.25417685595988</v>
+        <v>0.064079</v>
       </c>
       <c r="O9">
-        <v>0.08282427763777249</v>
+        <v>0.006547107881326709</v>
       </c>
       <c r="P9">
-        <v>0.08282427763777249</v>
+        <v>0.009224834078519996</v>
       </c>
       <c r="Q9">
-        <v>0.2748045843036891</v>
+        <v>0.4222173070678888</v>
       </c>
       <c r="R9">
-        <v>0.2748045843036891</v>
+        <v>3.799955763611</v>
       </c>
       <c r="S9">
-        <v>0.004243130531363127</v>
+        <v>0.005395068912547566</v>
       </c>
       <c r="T9">
-        <v>0.004243130531363127</v>
+        <v>0.007940283116062593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H10">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I10">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J10">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.40354755051174</v>
+        <v>0.125357</v>
       </c>
       <c r="N10">
-        <v>2.40354755051174</v>
+        <v>0.376071</v>
       </c>
       <c r="O10">
-        <v>0.7832030531945616</v>
+        <v>0.03842409226171471</v>
       </c>
       <c r="P10">
-        <v>0.7832030531945616</v>
+        <v>0.05413930580600655</v>
       </c>
       <c r="Q10">
-        <v>2.598607504912977</v>
+        <v>2.477936373637667</v>
       </c>
       <c r="R10">
-        <v>2.598607504912977</v>
+        <v>22.301427362739</v>
       </c>
       <c r="S10">
-        <v>0.04012389702691575</v>
+        <v>0.03166293108523348</v>
       </c>
       <c r="T10">
-        <v>0.04012389702691575</v>
+        <v>0.04660044962843952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6134545829154751</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H11">
-        <v>0.6134545829154751</v>
+        <v>59.301109</v>
       </c>
       <c r="I11">
-        <v>0.02906853740698051</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J11">
-        <v>0.02906853740698051</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.411144567810399</v>
+        <v>2.42513</v>
       </c>
       <c r="N11">
-        <v>0.411144567810399</v>
+        <v>4.85026</v>
       </c>
       <c r="O11">
-        <v>0.1339726691676659</v>
+        <v>0.7433443594426494</v>
       </c>
       <c r="P11">
-        <v>0.1339726691676659</v>
+        <v>0.6982450371835141</v>
       </c>
       <c r="Q11">
-        <v>0.2522185193640916</v>
+        <v>47.93763282305667</v>
       </c>
       <c r="R11">
-        <v>0.2522185193640916</v>
+        <v>287.62579693834</v>
       </c>
       <c r="S11">
-        <v>0.003894389545213319</v>
+        <v>0.6125443657931529</v>
       </c>
       <c r="T11">
-        <v>0.003894389545213319</v>
+        <v>0.601014959448708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,117 +1151,613 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H12">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I12">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J12">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.25417685595988</v>
+        <v>0.415887</v>
       </c>
       <c r="N12">
-        <v>0.25417685595988</v>
+        <v>0.831774</v>
       </c>
       <c r="O12">
-        <v>0.08282427763777249</v>
+        <v>0.1274765705819998</v>
       </c>
       <c r="P12">
-        <v>0.08282427763777249</v>
+        <v>0.1197424607254622</v>
       </c>
       <c r="Q12">
-        <v>0.1559259571596349</v>
+        <v>0.478933112507</v>
       </c>
       <c r="R12">
-        <v>0.1559259571596349</v>
+        <v>2.873598675042</v>
       </c>
       <c r="S12">
-        <v>0.002407580612719729</v>
+        <v>0.006119780272438468</v>
       </c>
       <c r="T12">
-        <v>0.002407580612719729</v>
+        <v>0.006004592806126051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.454783</v>
+      </c>
+      <c r="I13">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J13">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2747246666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.824174</v>
+      </c>
+      <c r="O13">
+        <v>0.08420786983230948</v>
+      </c>
+      <c r="P13">
+        <v>0.1186483622064973</v>
+      </c>
+      <c r="Q13">
+        <v>0.3163713693602223</v>
+      </c>
+      <c r="R13">
+        <v>2.847342324242</v>
+      </c>
+      <c r="S13">
+        <v>0.004042575496273989</v>
+      </c>
+      <c r="T13">
+        <v>0.005949728257190211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.454783</v>
+      </c>
+      <c r="I14">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J14">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02135966666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.064079</v>
+      </c>
+      <c r="O14">
+        <v>0.006547107881326709</v>
+      </c>
+      <c r="P14">
+        <v>0.009224834078519996</v>
+      </c>
+      <c r="Q14">
+        <v>0.02459767109522222</v>
+      </c>
+      <c r="R14">
+        <v>0.221379039857</v>
+      </c>
+      <c r="S14">
+        <v>0.0003143076525415033</v>
+      </c>
+      <c r="T14">
+        <v>0.0004625875567446821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.454783</v>
+      </c>
+      <c r="I15">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J15">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.125357</v>
+      </c>
+      <c r="N15">
+        <v>0.376071</v>
+      </c>
+      <c r="O15">
+        <v>0.03842409226171471</v>
+      </c>
+      <c r="P15">
+        <v>0.05413930580600655</v>
+      </c>
+      <c r="Q15">
+        <v>0.1443604108436667</v>
+      </c>
+      <c r="R15">
+        <v>1.299243697593</v>
+      </c>
+      <c r="S15">
+        <v>0.001844629179589814</v>
+      </c>
+      <c r="T15">
+        <v>0.002714863918796007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.151594333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.454783</v>
+      </c>
+      <c r="I16">
+        <v>0.04800709843776271</v>
+      </c>
+      <c r="J16">
+        <v>0.05014589452853316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.42513</v>
+      </c>
+      <c r="N16">
+        <v>4.85026</v>
+      </c>
+      <c r="O16">
+        <v>0.7433443594426494</v>
+      </c>
+      <c r="P16">
+        <v>0.6982450371835141</v>
+      </c>
+      <c r="Q16">
+        <v>2.792765965596667</v>
+      </c>
+      <c r="R16">
+        <v>16.75659579358</v>
+      </c>
+      <c r="S16">
+        <v>0.03568580583691894</v>
+      </c>
+      <c r="T16">
+        <v>0.03501412198967621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6134545829154751</v>
-      </c>
-      <c r="H13">
-        <v>0.6134545829154751</v>
-      </c>
-      <c r="I13">
-        <v>0.02906853740698051</v>
-      </c>
-      <c r="J13">
-        <v>0.02906853740698051</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.40354755051174</v>
-      </c>
-      <c r="N13">
-        <v>2.40354755051174</v>
-      </c>
-      <c r="O13">
-        <v>0.7832030531945616</v>
-      </c>
-      <c r="P13">
-        <v>0.7832030531945616</v>
-      </c>
-      <c r="Q13">
-        <v>1.474467260116691</v>
-      </c>
-      <c r="R13">
-        <v>1.474467260116691</v>
-      </c>
-      <c r="S13">
-        <v>0.02276656724904746</v>
-      </c>
-      <c r="T13">
-        <v>0.02276656724904746</v>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.655778</v>
+      </c>
+      <c r="H17">
+        <v>1.311556</v>
+      </c>
+      <c r="I17">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J17">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.415887</v>
+      </c>
+      <c r="N17">
+        <v>0.831774</v>
+      </c>
+      <c r="O17">
+        <v>0.1274765705819998</v>
+      </c>
+      <c r="P17">
+        <v>0.1197424607254622</v>
+      </c>
+      <c r="Q17">
+        <v>0.272729545086</v>
+      </c>
+      <c r="R17">
+        <v>1.090918180344</v>
+      </c>
+      <c r="S17">
+        <v>0.003484922729588938</v>
+      </c>
+      <c r="T17">
+        <v>0.002279552644097027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.655778</v>
+      </c>
+      <c r="H18">
+        <v>1.311556</v>
+      </c>
+      <c r="I18">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J18">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2747246666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.824174</v>
+      </c>
+      <c r="O18">
+        <v>0.08420786983230948</v>
+      </c>
+      <c r="P18">
+        <v>0.1186483622064973</v>
+      </c>
+      <c r="Q18">
+        <v>0.1801583924573333</v>
+      </c>
+      <c r="R18">
+        <v>1.080950354744</v>
+      </c>
+      <c r="S18">
+        <v>0.002302053767598918</v>
+      </c>
+      <c r="T18">
+        <v>0.002258724149704154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.655778</v>
+      </c>
+      <c r="H19">
+        <v>1.311556</v>
+      </c>
+      <c r="I19">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J19">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02135966666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.064079</v>
+      </c>
+      <c r="O19">
+        <v>0.006547107881326709</v>
+      </c>
+      <c r="P19">
+        <v>0.009224834078519996</v>
+      </c>
+      <c r="Q19">
+        <v>0.01400719948733333</v>
+      </c>
+      <c r="R19">
+        <v>0.08404319692399999</v>
+      </c>
+      <c r="S19">
+        <v>0.0001789832042432436</v>
+      </c>
+      <c r="T19">
+        <v>0.0001756143542369603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.655778</v>
+      </c>
+      <c r="H20">
+        <v>1.311556</v>
+      </c>
+      <c r="I20">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J20">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.125357</v>
+      </c>
+      <c r="N20">
+        <v>0.376071</v>
+      </c>
+      <c r="O20">
+        <v>0.03842409226171471</v>
+      </c>
+      <c r="P20">
+        <v>0.05413930580600655</v>
+      </c>
+      <c r="Q20">
+        <v>0.08220636274600002</v>
+      </c>
+      <c r="R20">
+        <v>0.493238176476</v>
+      </c>
+      <c r="S20">
+        <v>0.001050428262035314</v>
+      </c>
+      <c r="T20">
+        <v>0.0010306569361608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.655778</v>
+      </c>
+      <c r="H21">
+        <v>1.311556</v>
+      </c>
+      <c r="I21">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J21">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.42513</v>
+      </c>
+      <c r="N21">
+        <v>4.85026</v>
+      </c>
+      <c r="O21">
+        <v>0.7433443594426494</v>
+      </c>
+      <c r="P21">
+        <v>0.6982450371835141</v>
+      </c>
+      <c r="Q21">
+        <v>1.59034690114</v>
+      </c>
+      <c r="R21">
+        <v>6.36138760456</v>
+      </c>
+      <c r="S21">
+        <v>0.0203213629163884</v>
+      </c>
+      <c r="T21">
+        <v>0.01329258068604939</v>
       </c>
     </row>
   </sheetData>
